--- a/Resume(RUS).xlsx
+++ b/Resume(RUS).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495"/>
+    <workbookView windowWidth="21555" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Плегунов Николай Михайлович</t>
   </si>
@@ -61,6 +61,9 @@
     <t>-Postman (basic level)</t>
   </si>
   <si>
+    <t>EPAM-Software Testing Introduction by Svyatoslav Kulikov</t>
+  </si>
+  <si>
     <t>-Git (basic level)</t>
   </si>
   <si>
@@ -76,7 +79,7 @@
     <t>-English (B1)</t>
   </si>
   <si>
-    <t>-Selenium IDE</t>
+    <t>-Selenium IDE (basic level)</t>
   </si>
   <si>
     <t>Links:</t>
@@ -157,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -232,14 +235,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,90 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -358,6 +354,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,6 +371,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,7 +413,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +473,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,151 +509,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,9 +890,7 @@
       <top style="dotted">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -898,6 +899,28 @@
       <top style="dotted">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -915,26 +938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1053,6 +1056,41 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,32 +1119,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1122,15 +1134,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1157,152 +1160,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,9 +1350,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1396,10 +1396,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1407,10 +1425,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,7 +1443,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1434,39 +1452,39 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1488,10 +1506,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,9 +1536,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1530,8 +1545,17 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1539,7 +1563,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1965,8 +1989,8 @@
   <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1986,7 +2010,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="67"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
@@ -2001,7 +2025,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="68"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="7"/>
@@ -2014,7 +2038,7 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="69"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:9">
       <c r="A4" s="10" t="s">
@@ -2027,7 +2051,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="70"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:9">
       <c r="A5" s="12" t="s">
@@ -2040,7 +2064,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="71"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="14" t="s">
@@ -2053,10 +2077,10 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="72"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2064,489 +2088,491 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="73"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="74"/>
+      <c r="I7" s="77"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:9">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" ht="18.75" spans="1:9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="75"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="76"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="80"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="77"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="81"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="34" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="78"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="78"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="78"/>
+      <c r="A14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="84"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="78"/>
+      <c r="A15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="78"/>
+      <c r="A16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="85"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="78"/>
+      <c r="A17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="85"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="78"/>
+      <c r="A18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="85"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="78"/>
+      <c r="A19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="85"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="79"/>
-    </row>
-    <row r="22" ht="18.75" spans="1:9">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="85"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:9">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="86"/>
+    </row>
+    <row r="22" ht="19.5" spans="1:9">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" ht="18.75" spans="1:9">
-      <c r="A23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="38" t="s">
+      <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="80"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="87"/>
     </row>
     <row r="24" ht="15.75" spans="1:9">
-      <c r="A24" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="81"/>
+      <c r="A24" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="88"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="43" t="s">
+      <c r="A25" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="81"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="88"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="81"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="88"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="82"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="89"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="82"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="78"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="85"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="78"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="85"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="78"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="78"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="78"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="85"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="78"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" ht="19" customHeight="1" spans="1:9">
-      <c r="A35" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="78"/>
+      <c r="A35" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="85"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="78"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="85"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="78"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="85"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="78"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" ht="15.75" spans="1:9">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="78"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="85"/>
     </row>
     <row r="40" ht="19.5" spans="1:9">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="83"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="90"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="60" t="s">
+      <c r="A41" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="84"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="91"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="85"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="92"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="57"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="85"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="92"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="57"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="85"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="92"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="85"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="86"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="92"/>
+    </row>
+    <row r="46" ht="15.75" spans="1:9">
+      <c r="A46" s="68"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="54">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
@@ -2559,9 +2585,7 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:I13"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="A16:E16"/>
@@ -2602,6 +2626,7 @@
     <mergeCell ref="A35:E40"/>
     <mergeCell ref="A25:E34"/>
     <mergeCell ref="F41:I46"/>
+    <mergeCell ref="F13:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId2" display="plegunov@list.ru"/>

--- a/Resume(RUS).xlsx
+++ b/Resume(RUS).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21555" windowHeight="12495"/>
+    <workbookView windowWidth="28125" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -146,7 +146,7 @@
     </r>
   </si>
   <si>
-    <t>Education:</t>
+    <t>Образование:</t>
   </si>
   <si>
     <t>Вел активную социальную роль: 9 лет являлся представителем цеха в комитете экономического развития компании; 2 года в комитете по созданию коллективного договора; помогал обеспечивать антиковидные меры на територии завода</t>
@@ -160,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -241,22 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -264,11 +248,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,7 +264,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,17 +318,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,15 +340,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,9 +349,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,13 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -377,19 +377,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,157 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,6 +1056,56 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,50 +1125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1134,21 +1140,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1157,21 +1148,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,127 +1181,127 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1989,8 +1989,8 @@
   <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Resume(RUS).xlsx
+++ b/Resume(RUS).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Плегунов Николай Михайлович</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>-Selenium IDE (basic level)</t>
+  </si>
+  <si>
+    <t>HTML/CSS(basic level)</t>
   </si>
   <si>
     <t>Links:</t>
@@ -160,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -241,6 +244,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,13 +261,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,14 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -295,14 +291,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -332,6 +328,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -340,15 +344,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -361,6 +357,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,13 +374,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,169 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,6 +1104,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1125,21 +1152,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1148,28 +1160,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,131 +1184,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,6 +1427,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1990,7 +2002,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="A10" sqref="A10:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2010,7 +2022,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="72"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
@@ -2025,7 +2037,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="73"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="7"/>
@@ -2038,7 +2050,7 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="74"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:9">
       <c r="A4" s="10" t="s">
@@ -2051,7 +2063,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="75"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:9">
       <c r="A5" s="12" t="s">
@@ -2064,7 +2076,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="76"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="14" t="s">
@@ -2077,7 +2089,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="77"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="14"/>
@@ -2088,7 +2100,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="77"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" ht="15.75" spans="1:9">
       <c r="A8" s="16"/>
@@ -2099,7 +2111,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="78"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" ht="18.75" spans="1:9">
       <c r="A9" s="18" t="s">
@@ -2114,7 +2126,7 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="79"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="23" t="s">
@@ -2127,7 +2139,7 @@
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="80"/>
+      <c r="I10" s="83"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="28" t="s">
@@ -2142,7 +2154,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="81"/>
+      <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="28" t="s">
@@ -2157,7 +2169,7 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="82"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="28" t="s">
@@ -2172,7 +2184,7 @@
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="83"/>
+      <c r="I13" s="86"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="28" t="s">
@@ -2185,7 +2197,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="84"/>
+      <c r="I14" s="87"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="28" t="s">
@@ -2198,7 +2210,7 @@
       <c r="F15" s="39"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="85"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="28" t="s">
@@ -2211,7 +2223,7 @@
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="85"/>
+      <c r="I16" s="88"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28" t="s">
@@ -2224,7 +2236,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="85"/>
+      <c r="I17" s="88"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="28" t="s">
@@ -2237,7 +2249,7 @@
       <c r="F18" s="39"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="85"/>
+      <c r="I18" s="88"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="28" t="s">
@@ -2250,18 +2262,20 @@
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="85"/>
+      <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="A20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="85"/>
+      <c r="I20" s="88"/>
     </row>
     <row r="21" ht="15.75" spans="1:9">
       <c r="A21" s="28"/>
@@ -2269,10 +2283,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="86"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" ht="19.5" spans="1:9">
       <c r="A22" s="28"/>
@@ -2281,7 +2295,7 @@
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
       <c r="F22" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -2289,287 +2303,287 @@
     </row>
     <row r="23" ht="18.75" spans="1:9">
       <c r="A23" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="87"/>
+      <c r="F23" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="90"/>
     </row>
     <row r="24" ht="15.75" spans="1:9">
-      <c r="A24" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="88"/>
+      <c r="A24" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="91"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="48" t="s">
+      <c r="A25" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="88"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="91"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="88"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="91"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="89"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="89"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="39"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
-      <c r="I29" s="85"/>
+      <c r="I29" s="88"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
-      <c r="I30" s="85"/>
+      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="39"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
-      <c r="I31" s="85"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
-      <c r="I32" s="85"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="39"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
-      <c r="I33" s="85"/>
+      <c r="I33" s="88"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
-      <c r="I34" s="85"/>
+      <c r="I34" s="88"/>
     </row>
     <row r="35" ht="19" customHeight="1" spans="1:9">
-      <c r="A35" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
+      <c r="A35" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="39"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
-      <c r="I35" s="85"/>
+      <c r="I35" s="88"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="39"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
-      <c r="I36" s="85"/>
+      <c r="I36" s="88"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
-      <c r="I37" s="85"/>
+      <c r="I37" s="88"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="39"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="85"/>
+      <c r="I38" s="88"/>
     </row>
     <row r="39" ht="15.75" spans="1:9">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
-      <c r="I39" s="85"/>
+      <c r="I39" s="88"/>
     </row>
     <row r="40" ht="19.5" spans="1:9">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="90"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="93"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="65" t="s">
+      <c r="A41" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="91"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="94"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="92"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="95"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="92"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="95"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="92"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="95"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="92"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="95"/>
     </row>
     <row r="46" ht="15.75" spans="1:9">
-      <c r="A46" s="68"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="93"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="54">

--- a/Resume(RUS).xlsx
+++ b/Resume(RUS).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Плегунов Николай Михайлович</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>HTML/CSS(basic level)</t>
+  </si>
+  <si>
+    <t>Linux terminal(basic level)</t>
   </si>
   <si>
     <t>Links:</t>
@@ -163,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -238,6 +241,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -253,22 +263,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,26 +277,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,22 +308,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -358,6 +330,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -374,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,6 +1062,74 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,87 +1163,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,127 +1187,127 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2002,7 +2005,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E20"/>
+      <selection activeCell="A10" sqref="A10:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2277,8 +2280,10 @@
       <c r="H20" s="40"/>
       <c r="I20" s="88"/>
     </row>
-    <row r="21" ht="15.75" spans="1:9">
-      <c r="A21" s="28"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2295,7 +2300,7 @@
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
       <c r="F22" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -2303,14 +2308,14 @@
     </row>
     <row r="23" ht="18.75" spans="1:9">
       <c r="A23" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
@@ -2318,7 +2323,7 @@
     </row>
     <row r="24" ht="15.75" spans="1:9">
       <c r="A24" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -2331,14 +2336,14 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
@@ -2362,7 +2367,7 @@
       <c r="D27" s="57"/>
       <c r="E27" s="58"/>
       <c r="F27" s="59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
@@ -2447,7 +2452,7 @@
     </row>
     <row r="35" ht="19" customHeight="1" spans="1:9">
       <c r="A35" s="53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -2509,7 +2514,7 @@
       <c r="D40" s="62"/>
       <c r="E40" s="63"/>
       <c r="F40" s="64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" s="64"/>
       <c r="H40" s="64"/>
@@ -2517,14 +2522,14 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="66"/>
       <c r="C41" s="66"/>
       <c r="D41" s="66"/>
       <c r="E41" s="67"/>
       <c r="F41" s="68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" s="68"/>
       <c r="H41" s="68"/>

--- a/Resume(RUS).xlsx
+++ b/Resume(RUS).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13080"/>
+    <workbookView windowWidth="24225" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Плегунов Николай Михайлович</t>
   </si>
   <si>
-    <t>Plegunov Nikolai</t>
+    <t xml:space="preserve">                  Plegunov Nikolai</t>
   </si>
   <si>
     <t>plegunov@list.ru</t>
@@ -34,7 +34,7 @@
     <t>Обо мне:</t>
   </si>
   <si>
-    <t>Люблю работать руками и головой. Не люблю нечеткие задачи. Дружу с техникой и людми. Обучаюсь не быстро, но не поддаюсь панике и унынию. С февраля 2022 начал изучение профессии тестестировщика.  Google и Youtube мне в помощь.</t>
+    <t>Люблю работать руками и головой. Имею большой опыт работы с различным оборудованием, технической документацией, ее улучшения и создания с нуля. Опыт работы в колективе до 2000 человек, спокойно коммуницирую между отделами. Сейчас хочу поменять сферу деятельности, усиленно учусь и понимаю все риски.</t>
   </si>
   <si>
     <t>Навыки:</t>
@@ -85,16 +85,25 @@
     <t>HTML/CSS(basic level)</t>
   </si>
   <si>
+    <t>Опыт в тестировании:</t>
+  </si>
+  <si>
     <t>Linux terminal(basic level)</t>
   </si>
   <si>
-    <t>Links:</t>
+    <t>Test.io</t>
+  </si>
+  <si>
+    <t>Windows(experienced user)</t>
+  </si>
+  <si>
+    <t>Utest.com</t>
   </si>
   <si>
     <t>Предыдущая работа:</t>
   </si>
   <si>
-    <t>https://tester.test.io/profile_pages/plegunov-nikolai</t>
+    <t>Сбербанк - тестированиеприложений ассистентов Салют</t>
   </si>
   <si>
     <t>11 лет в Toyota Motor Russia, сварщик:</t>
@@ -123,6 +132,12 @@
     </r>
   </si>
   <si>
+    <t>Links:</t>
+  </si>
+  <si>
+    <t>https://tester.test.io/profile_pages/plegunov-nikolai</t>
+  </si>
+  <si>
     <t>https://github.com/PlegunovN/Resume.git</t>
   </si>
   <si>
@@ -166,8 +181,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -211,14 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -234,17 +241,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -254,9 +262,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,36 +285,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -307,24 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +309,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -353,9 +361,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +392,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,175 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,6 +924,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -930,37 +976,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1070,17 +1085,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1101,6 +1105,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1116,6 +1131,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1148,170 +1178,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1440,64 +1455,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,10 +1554,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,7 +1581,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1560,31 +1593,40 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,7 +1635,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,7 +1726,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4959350" y="504825"/>
+          <a:off x="4959350" y="441325"/>
           <a:ext cx="340995" cy="172720"/>
           <a:chOff x="7850" y="780"/>
           <a:chExt cx="558" cy="282"/>
@@ -1739,6 +1781,45 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Изображение 4" descr="12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect l="9164" t="4884" r="4439"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9525"/>
+          <a:ext cx="792480" cy="1128395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2004,8 +2085,8 @@
   <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2014,7 +2095,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:9">
+    <row r="1" ht="21" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2025,9 +2106,9 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="75"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="81"/>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2040,7 +2121,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="76"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="7"/>
@@ -2053,9 +2134,9 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="77"/>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:9">
+      <c r="I3" s="83"/>
+    </row>
+    <row r="4" ht="23" customHeight="1" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2066,9 +2147,9 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="78"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:9">
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -2079,7 +2160,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="79"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="14" t="s">
@@ -2092,7 +2173,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="80"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="14"/>
@@ -2103,9 +2184,9 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="80"/>
-    </row>
-    <row r="8" ht="15.75" spans="1:9">
+      <c r="I7" s="86"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:9">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -2114,9 +2195,9 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="81"/>
-    </row>
-    <row r="9" ht="18.75" spans="1:9">
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:9">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2210,7 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="82"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="23" t="s">
@@ -2142,7 +2223,7 @@
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="83"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="28" t="s">
@@ -2157,7 +2238,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="84"/>
+      <c r="I11" s="90"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="28" t="s">
@@ -2172,7 +2253,7 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="85"/>
+      <c r="I12" s="91"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="28" t="s">
@@ -2187,7 +2268,7 @@
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="86"/>
+      <c r="I13" s="92"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="28" t="s">
@@ -2200,7 +2281,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="87"/>
+      <c r="I14" s="93"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="28" t="s">
@@ -2213,7 +2294,7 @@
       <c r="F15" s="39"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="88"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="28" t="s">
@@ -2226,7 +2307,7 @@
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="88"/>
+      <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28" t="s">
@@ -2239,7 +2320,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="88"/>
+      <c r="I17" s="94"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="28" t="s">
@@ -2252,9 +2333,9 @@
       <c r="F18" s="39"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="88"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:9">
       <c r="A19" s="28" t="s">
         <v>21</v>
       </c>
@@ -2265,9 +2346,9 @@
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="88"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="94"/>
+    </row>
+    <row r="20" ht="18.75" spans="1:9">
       <c r="A20" s="41" t="s">
         <v>22</v>
       </c>
@@ -2275,55 +2356,61 @@
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="88"/>
+      <c r="F20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="44" t="s">
+        <v>25</v>
+      </c>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="89"/>
-    </row>
-    <row r="22" ht="19.5" spans="1:9">
-      <c r="A22" s="28"/>
+      <c r="I21" s="95"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:9">
+      <c r="A22" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="F22" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="95"/>
     </row>
     <row r="23" ht="18.75" spans="1:9">
       <c r="A23" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
-      <c r="I23" s="90"/>
+      <c r="I23" s="96"/>
     </row>
     <row r="24" ht="15.75" spans="1:9">
       <c r="A24" s="48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -2332,46 +2419,44 @@
       <c r="F24" s="51"/>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
-      <c r="I24" s="91"/>
+      <c r="I24" s="97"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
-      <c r="F25" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="91"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="94"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:9">
       <c r="A26" s="56"/>
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
       <c r="E26" s="58"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="91"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="98"/>
+    </row>
+    <row r="27" ht="18.75" spans="1:9">
       <c r="A27" s="56"/>
       <c r="B27" s="57"/>
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
       <c r="E27" s="58"/>
-      <c r="F27" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="92"/>
+      <c r="F27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="56"/>
@@ -2379,10 +2464,12 @@
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
       <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="92"/>
+      <c r="F28" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="99"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="56"/>
@@ -2390,10 +2477,10 @@
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
       <c r="E29" s="58"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="88"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="100"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="56"/>
@@ -2401,10 +2488,12 @@
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
       <c r="E30" s="58"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="88"/>
+      <c r="F30" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="56"/>
@@ -2412,10 +2501,10 @@
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
       <c r="E31" s="58"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="88"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="56"/>
@@ -2423,10 +2512,12 @@
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="88"/>
+      <c r="F32" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="101"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="56"/>
@@ -2434,25 +2525,25 @@
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="88"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
-      <c r="I34" s="88"/>
+      <c r="I34" s="94"/>
     </row>
     <row r="35" ht="19" customHeight="1" spans="1:9">
       <c r="A35" s="53" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -2461,7 +2552,7 @@
       <c r="F35" s="39"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
-      <c r="I35" s="88"/>
+      <c r="I35" s="94"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="56"/>
@@ -2472,7 +2563,7 @@
       <c r="F36" s="39"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
-      <c r="I36" s="88"/>
+      <c r="I36" s="94"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="56"/>
@@ -2483,7 +2574,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
-      <c r="I37" s="88"/>
+      <c r="I37" s="94"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="56"/>
@@ -2494,7 +2585,7 @@
       <c r="F38" s="39"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="88"/>
+      <c r="I38" s="94"/>
     </row>
     <row r="39" ht="15.75" spans="1:9">
       <c r="A39" s="56"/>
@@ -2505,93 +2596,93 @@
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
-      <c r="I39" s="88"/>
+      <c r="I39" s="94"/>
     </row>
     <row r="40" ht="19.5" spans="1:9">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="93"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="102"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="94"/>
+      <c r="A41" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="103"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="95"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="95"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="104"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="65"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="95"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="104"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="95"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="104"/>
     </row>
     <row r="46" ht="15.75" spans="1:9">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="96"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="53">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
@@ -2623,11 +2714,9 @@
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F36:I36"/>
@@ -2638,20 +2727,21 @@
     <mergeCell ref="A2:E3"/>
     <mergeCell ref="F9:I10"/>
     <mergeCell ref="F23:I24"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="F27:I28"/>
     <mergeCell ref="A6:I8"/>
     <mergeCell ref="A41:E46"/>
     <mergeCell ref="A35:E40"/>
     <mergeCell ref="A25:E34"/>
     <mergeCell ref="F41:I46"/>
     <mergeCell ref="F13:I14"/>
+    <mergeCell ref="F28:I29"/>
+    <mergeCell ref="F30:I31"/>
+    <mergeCell ref="F32:I33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId2" display="plegunov@list.ru"/>
-    <hyperlink ref="F23" r:id="rId3" display="https://tester.test.io/profile_pages/plegunov-nikolai"/>
-    <hyperlink ref="F25" r:id="rId4" display="https://github.com/PlegunovN/Resume.git"/>
-    <hyperlink ref="F27" r:id="rId5" display="https://linkedin.com/in/николай-плегунов-0b2048237"/>
+    <hyperlink ref="F28" r:id="rId3" display="https://tester.test.io/profile_pages/plegunov-nikolai"/>
+    <hyperlink ref="F30" r:id="rId4" display="https://github.com/PlegunovN/Resume.git"/>
+    <hyperlink ref="F32" r:id="rId5" display="https://linkedin.com/in/николай-плегунов-0b2048237"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
